--- a/metrics/MAPE/average time/Microalbuminuria.xlsx
+++ b/metrics/MAPE/average time/Microalbuminuria.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01683595882481949</v>
+        <v>0.01706163827823528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01706319541886724</v>
+        <v>0.01684108733088074</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01672556399350237</v>
+        <v>0.01687091119219434</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01366586480483498</v>
+        <v>0.0136624256915512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01367337213647552</v>
+        <v>0.01367497217411281</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01366486230213925</v>
+        <v>0.01366889199770151</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04303765909705543</v>
+        <v>0.04613110540114745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0460399694020926</v>
+        <v>0.04375848941320006</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04362991710717549</v>
+        <v>0.0469235267006767</v>
       </c>
     </row>
   </sheetData>
